--- a/relatorios/repasses_liberados/dentistas/06573224400/2023-08-25_relatorio_repasses_06573224400.xlsx
+++ b/relatorios/repasses_liberados/dentistas/06573224400/2023-08-25_relatorio_repasses_06573224400.xlsx
@@ -41369,7 +41369,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -41457,7 +41457,7 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N882">
         <v>0</v>
@@ -41941,7 +41941,7 @@
         <v>0</v>
       </c>
       <c r="M893">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N893">
         <v>0</v>
@@ -41985,7 +41985,7 @@
         <v>0</v>
       </c>
       <c r="M894">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N894">
         <v>0</v>
@@ -42117,7 +42117,7 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N897">
         <v>0</v>
@@ -42161,7 +42161,7 @@
         <v>0</v>
       </c>
       <c r="M898">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N898">
         <v>0</v>
@@ -42865,7 +42865,7 @@
         <v>0</v>
       </c>
       <c r="M914">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N914">
         <v>0</v>
@@ -42909,7 +42909,7 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N915">
         <v>0</v>
@@ -45989,10 +45989,10 @@
         <v>1</v>
       </c>
       <c r="M985">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N985">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:14">
@@ -46033,7 +46033,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -46077,7 +46077,7 @@
         <v>0</v>
       </c>
       <c r="M987">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N987">
         <v>0</v>
@@ -46165,7 +46165,7 @@
         <v>0</v>
       </c>
       <c r="M989">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N989">
         <v>0</v>
@@ -46209,7 +46209,7 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N990">
         <v>0</v>
@@ -46253,7 +46253,7 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N991">
         <v>0</v>
@@ -46913,7 +46913,7 @@
         <v>0</v>
       </c>
       <c r="M1006">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1006">
         <v>0</v>
@@ -47045,7 +47045,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -47089,7 +47089,7 @@
         <v>0</v>
       </c>
       <c r="M1010">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1010">
         <v>0</v>
@@ -47177,7 +47177,7 @@
         <v>0</v>
       </c>
       <c r="M1012">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1012">
         <v>0</v>
@@ -47265,7 +47265,7 @@
         <v>0</v>
       </c>
       <c r="M1014">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1014">
         <v>0</v>
@@ -47529,7 +47529,7 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1020">
         <v>0</v>
@@ -47573,7 +47573,7 @@
         <v>0</v>
       </c>
       <c r="M1021">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1021">
         <v>0</v>
@@ -47705,7 +47705,7 @@
         <v>0</v>
       </c>
       <c r="M1024">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1024">
         <v>0</v>
@@ -47749,7 +47749,7 @@
         <v>0</v>
       </c>
       <c r="M1025">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1025">
         <v>0</v>
@@ -47793,7 +47793,7 @@
         <v>0</v>
       </c>
       <c r="M1026">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1026">
         <v>0</v>
@@ -47837,7 +47837,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -47881,7 +47881,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1028">
         <v>0</v>
@@ -47925,7 +47925,7 @@
         <v>0</v>
       </c>
       <c r="M1029">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1029">
         <v>0</v>
@@ -48013,7 +48013,7 @@
         <v>0</v>
       </c>
       <c r="M1031">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N1031">
         <v>0</v>
@@ -48145,7 +48145,7 @@
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1034">
         <v>0</v>
@@ -48981,7 +48981,7 @@
         <v>0</v>
       </c>
       <c r="M1053">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1053">
         <v>0</v>
@@ -49025,7 +49025,7 @@
         <v>0</v>
       </c>
       <c r="M1054">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1054">
         <v>0</v>
@@ -49157,7 +49157,7 @@
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1057">
         <v>0</v>
@@ -49201,7 +49201,7 @@
         <v>0</v>
       </c>
       <c r="M1058">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1058">
         <v>0</v>
@@ -49333,7 +49333,7 @@
         <v>0</v>
       </c>
       <c r="M1061">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1061">
         <v>0</v>
@@ -49377,7 +49377,7 @@
         <v>0</v>
       </c>
       <c r="M1062">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1062">
         <v>0</v>
@@ -49421,7 +49421,7 @@
         <v>0</v>
       </c>
       <c r="M1063">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1063">
         <v>0</v>
@@ -49465,7 +49465,7 @@
         <v>0</v>
       </c>
       <c r="M1064">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1064">
         <v>0</v>
@@ -49509,7 +49509,7 @@
         <v>0</v>
       </c>
       <c r="M1065">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1065">
         <v>0</v>
@@ -50081,7 +50081,7 @@
         <v>0</v>
       </c>
       <c r="M1078">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1078">
         <v>0</v>
@@ -50125,7 +50125,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -50169,7 +50169,7 @@
         <v>0</v>
       </c>
       <c r="M1080">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1080">
         <v>0</v>
@@ -50257,7 +50257,7 @@
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1082">
         <v>0</v>
@@ -50653,7 +50653,7 @@
         <v>0</v>
       </c>
       <c r="M1091">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1091">
         <v>0</v>
@@ -50697,7 +50697,7 @@
         <v>0</v>
       </c>
       <c r="M1092">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1092">
         <v>0</v>
@@ -50741,7 +50741,7 @@
         <v>0</v>
       </c>
       <c r="M1093">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1093">
         <v>0</v>
@@ -50785,7 +50785,7 @@
         <v>0</v>
       </c>
       <c r="M1094">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1094">
         <v>0</v>
@@ -51577,7 +51577,7 @@
         <v>0</v>
       </c>
       <c r="M1112">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1112">
         <v>0</v>
@@ -51621,7 +51621,7 @@
         <v>0</v>
       </c>
       <c r="M1113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1113">
         <v>0</v>
@@ -52413,7 +52413,7 @@
         <v>0</v>
       </c>
       <c r="M1131">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1131">
         <v>0</v>
@@ -53469,7 +53469,7 @@
         <v>0</v>
       </c>
       <c r="M1155">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1155">
         <v>0</v>
@@ -53865,7 +53865,7 @@
         <v>0</v>
       </c>
       <c r="M1164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1164">
         <v>0</v>
@@ -53909,7 +53909,7 @@
         <v>0</v>
       </c>
       <c r="M1165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1165">
         <v>0</v>
@@ -53997,7 +53997,7 @@
         <v>0</v>
       </c>
       <c r="M1167">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1167">
         <v>0</v>
@@ -57869,7 +57869,7 @@
         <v>0</v>
       </c>
       <c r="M1255">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1255">
         <v>0</v>
@@ -57913,7 +57913,7 @@
         <v>0</v>
       </c>
       <c r="M1256">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1256">
         <v>0</v>
@@ -58089,7 +58089,7 @@
         <v>0</v>
       </c>
       <c r="M1260">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1260">
         <v>0</v>
@@ -58133,7 +58133,7 @@
         <v>0</v>
       </c>
       <c r="M1261">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1261">
         <v>0</v>
@@ -58749,7 +58749,7 @@
         <v>0</v>
       </c>
       <c r="M1275">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="N1275">
         <v>0</v>
@@ -58793,7 +58793,7 @@
         <v>0</v>
       </c>
       <c r="M1276">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N1276">
         <v>0</v>
@@ -58837,7 +58837,7 @@
         <v>0</v>
       </c>
       <c r="M1277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1277">
         <v>0</v>
@@ -58881,7 +58881,7 @@
         <v>0</v>
       </c>
       <c r="M1278">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1278">
         <v>0</v>
@@ -59277,7 +59277,7 @@
         <v>0</v>
       </c>
       <c r="M1287">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1287">
         <v>0</v>
@@ -59365,7 +59365,7 @@
         <v>0</v>
       </c>
       <c r="M1289">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1289">
         <v>0</v>
@@ -59717,7 +59717,7 @@
         <v>0</v>
       </c>
       <c r="M1297">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1297">
         <v>0</v>
@@ -59761,7 +59761,7 @@
         <v>0</v>
       </c>
       <c r="M1298">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1298">
         <v>0</v>
@@ -59805,7 +59805,7 @@
         <v>0</v>
       </c>
       <c r="M1299">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1299">
         <v>0</v>
@@ -59937,7 +59937,7 @@
         <v>0</v>
       </c>
       <c r="M1302">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1302">
         <v>0</v>
@@ -60025,7 +60025,7 @@
         <v>0</v>
       </c>
       <c r="M1304">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1304">
         <v>0</v>
@@ -60069,7 +60069,7 @@
         <v>0</v>
       </c>
       <c r="M1305">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1305">
         <v>0</v>
@@ -60157,7 +60157,7 @@
         <v>0</v>
       </c>
       <c r="M1307">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1307">
         <v>0</v>
@@ -60201,7 +60201,7 @@
         <v>0</v>
       </c>
       <c r="M1308">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1308">
         <v>0</v>
@@ -60993,7 +60993,7 @@
         <v>0</v>
       </c>
       <c r="M1326">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1326">
         <v>0</v>
@@ -61829,7 +61829,7 @@
         <v>0</v>
       </c>
       <c r="M1345">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1345">
         <v>0</v>
@@ -62797,7 +62797,7 @@
         <v>0</v>
       </c>
       <c r="M1367">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1367">
         <v>0</v>
@@ -62885,7 +62885,7 @@
         <v>0</v>
       </c>
       <c r="M1369">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1369">
         <v>0</v>
@@ -63457,7 +63457,7 @@
         <v>0</v>
       </c>
       <c r="M1382">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1382">
         <v>0</v>
@@ -63545,7 +63545,7 @@
         <v>0</v>
       </c>
       <c r="M1384">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1384">
         <v>0</v>
@@ -63633,7 +63633,7 @@
         <v>0</v>
       </c>
       <c r="M1386">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1386">
         <v>0</v>
@@ -64557,7 +64557,7 @@
         <v>0</v>
       </c>
       <c r="M1407">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1407">
         <v>0</v>
@@ -64601,7 +64601,7 @@
         <v>0</v>
       </c>
       <c r="M1408">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1408">
         <v>0</v>
@@ -64777,7 +64777,7 @@
         <v>0</v>
       </c>
       <c r="M1412">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1412">
         <v>0</v>
@@ -64953,7 +64953,7 @@
         <v>0</v>
       </c>
       <c r="M1416">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1416">
         <v>0</v>
@@ -64997,7 +64997,7 @@
         <v>0</v>
       </c>
       <c r="M1417">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1417">
         <v>0</v>
@@ -65085,7 +65085,7 @@
         <v>0</v>
       </c>
       <c r="M1419">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1419">
         <v>0</v>
@@ -65217,7 +65217,7 @@
         <v>0</v>
       </c>
       <c r="M1422">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1422">
         <v>0</v>
@@ -65261,7 +65261,7 @@
         <v>0</v>
       </c>
       <c r="M1423">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1423">
         <v>0</v>
@@ -65349,7 +65349,7 @@
         <v>0</v>
       </c>
       <c r="M1425">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1425">
         <v>0</v>
@@ -65789,7 +65789,7 @@
         <v>0</v>
       </c>
       <c r="M1435">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1435">
         <v>0</v>
@@ -65833,7 +65833,7 @@
         <v>0</v>
       </c>
       <c r="M1436">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1436">
         <v>0</v>
@@ -66097,7 +66097,7 @@
         <v>0</v>
       </c>
       <c r="M1442">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1442">
         <v>0</v>
@@ -66229,7 +66229,7 @@
         <v>0</v>
       </c>
       <c r="M1445">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1445">
         <v>0</v>
@@ -66493,7 +66493,7 @@
         <v>0</v>
       </c>
       <c r="M1451">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1451">
         <v>0</v>
@@ -66581,7 +66581,7 @@
         <v>0</v>
       </c>
       <c r="M1453">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1453">
         <v>0</v>
@@ -68957,7 +68957,7 @@
         <v>0</v>
       </c>
       <c r="M1507">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1507">
         <v>0</v>
@@ -69045,7 +69045,7 @@
         <v>0</v>
       </c>
       <c r="M1509">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1509">
         <v>0</v>
@@ -69617,7 +69617,7 @@
         <v>0</v>
       </c>
       <c r="M1522">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1522">
         <v>0</v>
@@ -69705,7 +69705,7 @@
         <v>0</v>
       </c>
       <c r="M1524">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1524">
         <v>0</v>
@@ -70189,7 +70189,7 @@
         <v>0</v>
       </c>
       <c r="M1535">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1535">
         <v>0</v>
@@ -70233,7 +70233,7 @@
         <v>0</v>
       </c>
       <c r="M1536">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1536">
         <v>0</v>
@@ -70409,7 +70409,7 @@
         <v>0</v>
       </c>
       <c r="M1540">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1540">
         <v>0</v>
@@ -70453,7 +70453,7 @@
         <v>0</v>
       </c>
       <c r="M1541">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1541">
         <v>0</v>
@@ -70541,7 +70541,7 @@
         <v>0</v>
       </c>
       <c r="M1543">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1543">
         <v>0</v>
@@ -70585,7 +70585,7 @@
         <v>0</v>
       </c>
       <c r="M1544">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1544">
         <v>0</v>
@@ -70893,7 +70893,7 @@
         <v>0</v>
       </c>
       <c r="M1551">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1551">
         <v>0</v>
@@ -71201,7 +71201,7 @@
         <v>0</v>
       </c>
       <c r="M1558">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1558">
         <v>0</v>
@@ -71245,7 +71245,7 @@
         <v>0</v>
       </c>
       <c r="M1559">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1559">
         <v>0</v>
@@ -71465,7 +71465,7 @@
         <v>0</v>
       </c>
       <c r="M1564">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1564">
         <v>0</v>
@@ -71553,7 +71553,7 @@
         <v>0</v>
       </c>
       <c r="M1566">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1566">
         <v>0</v>
@@ -72257,7 +72257,7 @@
         <v>0</v>
       </c>
       <c r="M1582">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1582">
         <v>0</v>
@@ -72301,7 +72301,7 @@
         <v>0</v>
       </c>
       <c r="M1583">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1583">
         <v>0</v>
@@ -72477,7 +72477,7 @@
         <v>0</v>
       </c>
       <c r="M1587">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1587">
         <v>0</v>
@@ -72565,7 +72565,7 @@
         <v>0</v>
       </c>
       <c r="M1589">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1589">
         <v>0</v>
@@ -72873,7 +72873,7 @@
         <v>0</v>
       </c>
       <c r="M1596">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1596">
         <v>0</v>
@@ -73313,7 +73313,7 @@
         <v>0</v>
       </c>
       <c r="M1606">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1606">
         <v>0</v>
@@ -73797,7 +73797,7 @@
         <v>0</v>
       </c>
       <c r="M1617">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N1617">
         <v>0</v>
@@ -73885,7 +73885,7 @@
         <v>0</v>
       </c>
       <c r="M1619">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1619">
         <v>0</v>
@@ -74589,7 +74589,7 @@
         <v>0</v>
       </c>
       <c r="M1635">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1635">
         <v>0</v>
@@ -74721,7 +74721,7 @@
         <v>0</v>
       </c>
       <c r="M1638">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1638">
         <v>0</v>
@@ -75337,7 +75337,7 @@
         <v>0</v>
       </c>
       <c r="M1652">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1652">
         <v>0</v>
@@ -75381,7 +75381,7 @@
         <v>0</v>
       </c>
       <c r="M1653">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1653">
         <v>0</v>
@@ -75733,7 +75733,7 @@
         <v>0</v>
       </c>
       <c r="M1661">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1661">
         <v>0</v>
@@ -75821,7 +75821,7 @@
         <v>0</v>
       </c>
       <c r="M1663">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1663">
         <v>0</v>
@@ -76349,7 +76349,7 @@
         <v>0</v>
       </c>
       <c r="M1675">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1675">
         <v>0</v>
@@ -76437,7 +76437,7 @@
         <v>0</v>
       </c>
       <c r="M1677">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1677">
         <v>0</v>
@@ -76745,7 +76745,7 @@
         <v>0</v>
       </c>
       <c r="M1684">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1684">
         <v>0</v>
@@ -76789,7 +76789,7 @@
         <v>0</v>
       </c>
       <c r="M1685">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1685">
         <v>0</v>
@@ -77009,7 +77009,7 @@
         <v>0</v>
       </c>
       <c r="M1690">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1690">
         <v>0</v>
@@ -77141,7 +77141,7 @@
         <v>0</v>
       </c>
       <c r="M1693">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N1693">
         <v>0</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="M1694">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1694">
         <v>0</v>
@@ -77537,7 +77537,7 @@
         <v>0</v>
       </c>
       <c r="M1702">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1702">
         <v>0</v>
@@ -77581,7 +77581,7 @@
         <v>0</v>
       </c>
       <c r="M1703">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1703">
         <v>0</v>
@@ -77845,7 +77845,7 @@
         <v>0</v>
       </c>
       <c r="M1709">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1709">
         <v>0</v>
@@ -77889,7 +77889,7 @@
         <v>0</v>
       </c>
       <c r="M1710">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1710">
         <v>0</v>
@@ -79297,7 +79297,7 @@
         <v>0</v>
       </c>
       <c r="M1742">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1742">
         <v>0</v>
@@ -79341,7 +79341,7 @@
         <v>0</v>
       </c>
       <c r="M1743">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1743">
         <v>0</v>
@@ -79561,7 +79561,7 @@
         <v>0</v>
       </c>
       <c r="M1748">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1748">
         <v>0</v>
@@ -79957,7 +79957,7 @@
         <v>0</v>
       </c>
       <c r="M1757">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1757">
         <v>0</v>
@@ -80705,7 +80705,7 @@
         <v>0</v>
       </c>
       <c r="M1774">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1774">
         <v>0</v>
@@ -80793,7 +80793,7 @@
         <v>0</v>
       </c>
       <c r="M1776">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1776">
         <v>0</v>
@@ -81629,7 +81629,7 @@
         <v>0</v>
       </c>
       <c r="M1795">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1795">
         <v>0</v>
@@ -81673,7 +81673,7 @@
         <v>0</v>
       </c>
       <c r="M1796">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1796">
         <v>0</v>
@@ -81717,7 +81717,7 @@
         <v>0</v>
       </c>
       <c r="M1797">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1797">
         <v>0</v>
@@ -83169,7 +83169,7 @@
         <v>0</v>
       </c>
       <c r="M1830">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1830">
         <v>0</v>
@@ -83257,7 +83257,7 @@
         <v>0</v>
       </c>
       <c r="M1832">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1832">
         <v>0</v>
@@ -83477,7 +83477,7 @@
         <v>0</v>
       </c>
       <c r="M1837">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1837">
         <v>0</v>
@@ -83609,7 +83609,7 @@
         <v>0</v>
       </c>
       <c r="M1840">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1840">
         <v>0</v>
@@ -84181,7 +84181,7 @@
         <v>0</v>
       </c>
       <c r="M1853">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1853">
         <v>0</v>
@@ -84841,7 +84841,7 @@
         <v>0</v>
       </c>
       <c r="M1868">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1868">
         <v>0</v>
@@ -86425,7 +86425,7 @@
         <v>0</v>
       </c>
       <c r="M1904">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1904">
         <v>0</v>
@@ -86557,7 +86557,7 @@
         <v>0</v>
       </c>
       <c r="M1907">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1907">
         <v>0</v>
@@ -87217,7 +87217,7 @@
         <v>0</v>
       </c>
       <c r="M1922">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N1922">
         <v>0</v>
@@ -87613,7 +87613,7 @@
         <v>0</v>
       </c>
       <c r="M1931">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1931">
         <v>0</v>
@@ -87657,7 +87657,7 @@
         <v>0</v>
       </c>
       <c r="M1932">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1932">
         <v>0</v>
@@ -88053,7 +88053,7 @@
         <v>0</v>
       </c>
       <c r="M1941">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1941">
         <v>0</v>
@@ -88141,7 +88141,7 @@
         <v>0</v>
       </c>
       <c r="M1943">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1943">
         <v>0</v>
@@ -88977,7 +88977,7 @@
         <v>0</v>
       </c>
       <c r="M1962">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1962">
         <v>0</v>
@@ -89021,7 +89021,7 @@
         <v>0</v>
       </c>
       <c r="M1963">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1963">
         <v>0</v>
@@ -89197,7 +89197,7 @@
         <v>0</v>
       </c>
       <c r="M1967">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1967">
         <v>0</v>
@@ -89285,7 +89285,7 @@
         <v>0</v>
       </c>
       <c r="M1969">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1969">
         <v>0</v>
@@ -89329,7 +89329,7 @@
         <v>0</v>
       </c>
       <c r="M1970">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1970">
         <v>0</v>
@@ -89593,7 +89593,7 @@
         <v>0</v>
       </c>
       <c r="M1976">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1976">
         <v>0</v>
@@ -93641,7 +93641,7 @@
         <v>0</v>
       </c>
       <c r="M2068">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2068">
         <v>0</v>
@@ -93685,7 +93685,7 @@
         <v>0</v>
       </c>
       <c r="M2069">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2069">
         <v>0</v>
@@ -94477,7 +94477,7 @@
         <v>0</v>
       </c>
       <c r="M2087">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N2087">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/06573224400/2023-08-25_relatorio_repasses_06573224400.xlsx
+++ b/relatorios/repasses_liberados/dentistas/06573224400/2023-08-25_relatorio_repasses_06573224400.xlsx
@@ -8369,10 +8369,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N130">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8413,10 +8413,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N131">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -12549,10 +12549,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N225">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12813,10 +12813,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -13605,10 +13605,10 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N249">
-        <v>8.709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13649,10 +13649,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N250">
-        <v>8.709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -14045,10 +14045,10 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N259">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -14089,10 +14089,10 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N260">
-        <v>3.201</v>
+        <v>4.268</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -14133,10 +14133,10 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N261">
-        <v>6.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -14573,10 +14573,10 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N271">
-        <v>6.861</v>
+        <v>9.148000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -15277,10 +15277,10 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N287">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -15365,10 +15365,10 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N289">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -16157,10 +16157,10 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N307">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -16245,10 +16245,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N309">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -16289,10 +16289,10 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N310">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -16597,10 +16597,10 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N317">
-        <v>8.540999999999999</v>
+        <v>11.388</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -16861,10 +16861,10 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N323">
-        <v>0.051</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -17125,10 +17125,10 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N329">
-        <v>0.051</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -18049,10 +18049,10 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N350">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -18137,10 +18137,10 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -19325,10 +19325,10 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N379">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -19369,10 +19369,10 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N380">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -19589,10 +19589,10 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N385">
-        <v>0.006</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -19677,10 +19677,10 @@
         <v>0</v>
       </c>
       <c r="M387">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N387">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -19721,10 +19721,10 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N388">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="389" spans="1:14">
@@ -19809,10 +19809,10 @@
         <v>0</v>
       </c>
       <c r="M390">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N390">
-        <v>6.6</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="391" spans="1:14">
@@ -19985,10 +19985,10 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N394">
-        <v>1.068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -20029,10 +20029,10 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N395">
-        <v>1.068</v>
+        <v>65</v>
       </c>
     </row>
     <row r="396" spans="1:14">
@@ -20073,10 +20073,10 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N396">
-        <v>0.534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -20117,10 +20117,10 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N397">
-        <v>1.602</v>
+        <v>65</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -20909,10 +20909,10 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N415">
-        <v>6.534</v>
+        <v>8.712000000000002</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -20953,10 +20953,10 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N416">
-        <v>6.534</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -20997,10 +20997,10 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N417">
-        <v>6.534</v>
+        <v>8.712000000000002</v>
       </c>
     </row>
     <row r="418" spans="1:14">
@@ -21745,10 +21745,10 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N434">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:14">
@@ -22581,10 +22581,10 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N453">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="454" spans="1:14">
@@ -22757,10 +22757,10 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N457">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:14">
@@ -23857,10 +23857,10 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N482">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="483" spans="1:14">
@@ -24473,10 +24473,10 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N496">
-        <v>5.97</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -24737,10 +24737,10 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N502">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="503" spans="1:14">
@@ -24825,10 +24825,10 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N504">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="505" spans="1:14">
@@ -24869,10 +24869,10 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N505">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -24957,10 +24957,10 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N507">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508" spans="1:14">
@@ -25045,10 +25045,10 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N509">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="510" spans="1:14">
@@ -25133,10 +25133,10 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N511">
-        <v>9.606</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:14">
@@ -25397,10 +25397,10 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N517">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="518" spans="1:14">
@@ -25529,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N520">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="521" spans="1:14">
@@ -25573,10 +25573,10 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N521">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:14">
@@ -25705,10 +25705,10 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N524">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:14">
@@ -26409,10 +26409,10 @@
         <v>0</v>
       </c>
       <c r="M540">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N540">
-        <v>5.97</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="541" spans="1:14">
@@ -26453,10 +26453,10 @@
         <v>0</v>
       </c>
       <c r="M541">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N541">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="542" spans="1:14">
@@ -26497,10 +26497,10 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N542">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="543" spans="1:14">
@@ -26541,10 +26541,10 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N543">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="544" spans="1:14">
@@ -26585,10 +26585,10 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N544">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="545" spans="1:14">
@@ -27245,10 +27245,10 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N559">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:14">
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N563">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="564" spans="1:14">
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N565">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -28125,10 +28125,10 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N579">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:14">
@@ -28169,10 +28169,10 @@
         <v>0</v>
       </c>
       <c r="M580">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N580">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="581" spans="1:14">
@@ -28301,10 +28301,10 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N583">
-        <v>3.798</v>
+        <v>5.064</v>
       </c>
     </row>
     <row r="584" spans="1:14">
@@ -28345,10 +28345,10 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N584">
-        <v>3.798</v>
+        <v>5.064</v>
       </c>
     </row>
     <row r="585" spans="1:14">
@@ -28433,10 +28433,10 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N586">
-        <v>5.97</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="587" spans="1:14">
@@ -29093,10 +29093,10 @@
         <v>0</v>
       </c>
       <c r="M601">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N601">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:14">
@@ -29137,10 +29137,10 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N602">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:14">
@@ -30369,10 +30369,10 @@
         <v>0</v>
       </c>
       <c r="M630">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N630">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:14">
@@ -30457,10 +30457,10 @@
         <v>0</v>
       </c>
       <c r="M632">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N632">
-        <v>13.083</v>
+        <v>17.444</v>
       </c>
     </row>
     <row r="633" spans="1:14">
@@ -30501,10 +30501,10 @@
         <v>0</v>
       </c>
       <c r="M633">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N633">
-        <v>13.083</v>
+        <v>17.444</v>
       </c>
     </row>
     <row r="634" spans="1:14">
@@ -30545,10 +30545,10 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N634">
-        <v>9.023999999999999</v>
+        <v>12.032</v>
       </c>
     </row>
     <row r="635" spans="1:14">
@@ -31249,10 +31249,10 @@
         <v>0</v>
       </c>
       <c r="M650">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N650">
-        <v>6.405</v>
+        <v>10.675</v>
       </c>
     </row>
     <row r="651" spans="1:14">
@@ -31381,10 +31381,10 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N653">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -31425,10 +31425,10 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N654">
-        <v>0.534</v>
+        <v>0.7120000000000001</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -31469,10 +31469,10 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N655">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="656" spans="1:14">
@@ -31513,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N656">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -31689,10 +31689,10 @@
         <v>0</v>
       </c>
       <c r="M660">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N660">
-        <v>0.534</v>
+        <v>0.7120000000000001</v>
       </c>
     </row>
     <row r="661" spans="1:14">
@@ -31733,10 +31733,10 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N661">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="662" spans="1:14">
@@ -31953,10 +31953,10 @@
         <v>0</v>
       </c>
       <c r="M666">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N666">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="667" spans="1:14">
@@ -31997,10 +31997,10 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N667">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:14">
@@ -32041,10 +32041,10 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N668">
-        <v>2.592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:14">
@@ -32085,10 +32085,10 @@
         <v>0</v>
       </c>
       <c r="M669">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N669">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="670" spans="1:14">
@@ -32129,10 +32129,10 @@
         <v>0</v>
       </c>
       <c r="M670">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N670">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="671" spans="1:14">
@@ -32481,10 +32481,10 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N678">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="679" spans="1:14">
@@ -32525,10 +32525,10 @@
         <v>0</v>
       </c>
       <c r="M679">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N679">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="680" spans="1:14">
@@ -32701,10 +32701,10 @@
         <v>0</v>
       </c>
       <c r="M683">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N683">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="684" spans="1:14">
@@ -32833,10 +32833,10 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N686">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="687" spans="1:14">
@@ -32877,10 +32877,10 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N687">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688" spans="1:14">
@@ -32921,10 +32921,10 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N688">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="689" spans="1:14">
@@ -33317,10 +33317,10 @@
         <v>0</v>
       </c>
       <c r="M697">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N697">
-        <v>6.534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:14">
@@ -33493,10 +33493,10 @@
         <v>0</v>
       </c>
       <c r="M701">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N701">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="702" spans="1:14">
@@ -33537,10 +33537,10 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N702">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="703" spans="1:14">
@@ -33581,10 +33581,10 @@
         <v>0</v>
       </c>
       <c r="M703">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N703">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="704" spans="1:14">
@@ -33713,10 +33713,10 @@
         <v>0</v>
       </c>
       <c r="M706">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N706">
-        <v>2.592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:14">
@@ -34109,10 +34109,10 @@
         <v>0</v>
       </c>
       <c r="M715">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N715">
-        <v>2.592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:14">
@@ -34329,10 +34329,10 @@
         <v>0</v>
       </c>
       <c r="M720">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N720">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:14">
@@ -34989,10 +34989,10 @@
         <v>0</v>
       </c>
       <c r="M735">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N735">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="736" spans="1:14">
@@ -35473,10 +35473,10 @@
         <v>0</v>
       </c>
       <c r="M746">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N746">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="747" spans="1:14">
@@ -35517,10 +35517,10 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N747">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="748" spans="1:14">
@@ -35561,10 +35561,10 @@
         <v>0</v>
       </c>
       <c r="M748">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N748">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="749" spans="1:14">
@@ -35605,10 +35605,10 @@
         <v>0</v>
       </c>
       <c r="M749">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N749">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="750" spans="1:14">
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="M750">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N750">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="751" spans="1:14">
@@ -36617,10 +36617,10 @@
         <v>0</v>
       </c>
       <c r="M772">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N772">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="773" spans="1:14">
@@ -37057,10 +37057,10 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N782">
-        <v>3.798</v>
+        <v>5.064</v>
       </c>
     </row>
     <row r="783" spans="1:14">
@@ -37101,10 +37101,10 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N783">
-        <v>3.798</v>
+        <v>5.064</v>
       </c>
     </row>
     <row r="784" spans="1:14">
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N784">
-        <v>3.798</v>
+        <v>5.064</v>
       </c>
     </row>
     <row r="785" spans="1:14">
@@ -37277,10 +37277,10 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N787">
-        <v>7.26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="788" spans="1:14">
@@ -37321,10 +37321,10 @@
         <v>0</v>
       </c>
       <c r="M788">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N788">
-        <v>7.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:14">
@@ -37497,10 +37497,10 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N792">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="793" spans="1:14">
@@ -37629,10 +37629,10 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N795">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="796" spans="1:14">
@@ -37805,10 +37805,10 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N799">
-        <v>8.709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:14">
@@ -38069,10 +38069,10 @@
         <v>0</v>
       </c>
       <c r="M805">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N805">
-        <v>3.798</v>
+        <v>5.064</v>
       </c>
     </row>
     <row r="806" spans="1:14">
@@ -39169,10 +39169,10 @@
         <v>0</v>
       </c>
       <c r="M830">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N830">
-        <v>6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:14">
@@ -39521,10 +39521,10 @@
         <v>0</v>
       </c>
       <c r="M838">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N838">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:14">
@@ -40005,10 +40005,10 @@
         <v>0</v>
       </c>
       <c r="M849">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N849">
-        <v>7.323</v>
+        <v>9.764000000000001</v>
       </c>
     </row>
     <row r="850" spans="1:14">
@@ -40225,10 +40225,10 @@
         <v>0</v>
       </c>
       <c r="M854">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N854">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="855" spans="1:14">
@@ -40313,10 +40313,10 @@
         <v>0</v>
       </c>
       <c r="M856">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N856">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="857" spans="1:14">
@@ -40357,10 +40357,10 @@
         <v>0</v>
       </c>
       <c r="M857">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N857">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="858" spans="1:14">
@@ -40929,10 +40929,10 @@
         <v>0</v>
       </c>
       <c r="M870">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N870">
-        <v>9.879</v>
+        <v>13.172</v>
       </c>
     </row>
     <row r="871" spans="1:14">
@@ -41369,7 +41369,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -41413,7 +41413,7 @@
         <v>0</v>
       </c>
       <c r="M881">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N881">
         <v>0</v>
@@ -41457,7 +41457,7 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N882">
         <v>0</v>
@@ -41545,7 +41545,7 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N884">
         <v>0</v>
@@ -41633,7 +41633,7 @@
         <v>0</v>
       </c>
       <c r="M886">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N886">
         <v>0</v>
@@ -41677,7 +41677,7 @@
         <v>0</v>
       </c>
       <c r="M887">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N887">
         <v>0</v>
@@ -41721,7 +41721,7 @@
         <v>0</v>
       </c>
       <c r="M888">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N888">
         <v>0</v>
@@ -41985,7 +41985,7 @@
         <v>0</v>
       </c>
       <c r="M894">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N894">
         <v>0</v>
@@ -42029,7 +42029,7 @@
         <v>0</v>
       </c>
       <c r="M895">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N895">
         <v>0</v>
@@ -42073,7 +42073,7 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N896">
         <v>0</v>
@@ -42117,7 +42117,7 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N897">
         <v>0</v>
@@ -42161,7 +42161,7 @@
         <v>0</v>
       </c>
       <c r="M898">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N898">
         <v>0</v>
@@ -42293,7 +42293,7 @@
         <v>0</v>
       </c>
       <c r="M901">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N901">
         <v>0</v>
@@ -42381,7 +42381,7 @@
         <v>0</v>
       </c>
       <c r="M903">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N903">
         <v>0</v>
@@ -42601,7 +42601,7 @@
         <v>0</v>
       </c>
       <c r="M908">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N908">
         <v>0</v>
@@ -42645,7 +42645,7 @@
         <v>0</v>
       </c>
       <c r="M909">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N909">
         <v>0</v>
@@ -42689,7 +42689,7 @@
         <v>0</v>
       </c>
       <c r="M910">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N910">
         <v>0</v>
@@ -42733,7 +42733,7 @@
         <v>0</v>
       </c>
       <c r="M911">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N911">
         <v>0</v>
@@ -42777,7 +42777,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -42821,7 +42821,7 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N913">
         <v>0</v>
@@ -42909,7 +42909,7 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N915">
         <v>0</v>
@@ -43217,7 +43217,7 @@
         <v>0</v>
       </c>
       <c r="M922">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N922">
         <v>0</v>
@@ -43261,7 +43261,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -43305,7 +43305,7 @@
         <v>0</v>
       </c>
       <c r="M924">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N924">
         <v>0</v>
@@ -43349,7 +43349,7 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N925">
         <v>0</v>
@@ -43525,7 +43525,7 @@
         <v>0</v>
       </c>
       <c r="M929">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N929">
         <v>0</v>
@@ -43569,7 +43569,7 @@
         <v>0</v>
       </c>
       <c r="M930">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N930">
         <v>0</v>
@@ -43613,7 +43613,7 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N931">
         <v>0</v>
@@ -43657,7 +43657,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -43701,7 +43701,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -43745,7 +43745,7 @@
         <v>0</v>
       </c>
       <c r="M934">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N934">
         <v>0</v>
@@ -43789,7 +43789,7 @@
         <v>0</v>
       </c>
       <c r="M935">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N935">
         <v>0</v>
@@ -43833,7 +43833,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -43877,7 +43877,7 @@
         <v>0</v>
       </c>
       <c r="M937">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N937">
         <v>0</v>
@@ -43921,7 +43921,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -43965,7 +43965,7 @@
         <v>0</v>
       </c>
       <c r="M939">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N939">
         <v>0</v>
@@ -44185,7 +44185,7 @@
         <v>0</v>
       </c>
       <c r="M944">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N944">
         <v>0</v>
@@ -44229,7 +44229,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -44273,7 +44273,7 @@
         <v>0</v>
       </c>
       <c r="M946">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N946">
         <v>0</v>
@@ -44317,7 +44317,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -44361,7 +44361,7 @@
         <v>0</v>
       </c>
       <c r="M948">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N948">
         <v>0</v>
@@ -44405,7 +44405,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -44757,10 +44757,10 @@
         <v>1</v>
       </c>
       <c r="M957">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N957">
-        <v>34.2</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="958" spans="1:14">
@@ -44845,7 +44845,7 @@
         <v>0</v>
       </c>
       <c r="M959">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N959">
         <v>0</v>
@@ -45065,7 +45065,7 @@
         <v>0</v>
       </c>
       <c r="M964">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N964">
         <v>0</v>
@@ -45109,7 +45109,7 @@
         <v>0</v>
       </c>
       <c r="M965">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N965">
         <v>0</v>
@@ -45153,7 +45153,7 @@
         <v>0</v>
       </c>
       <c r="M966">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N966">
         <v>0</v>
@@ -45197,7 +45197,7 @@
         <v>0</v>
       </c>
       <c r="M967">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N967">
         <v>0</v>
@@ -45241,7 +45241,7 @@
         <v>0</v>
       </c>
       <c r="M968">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N968">
         <v>0</v>
@@ -45285,7 +45285,7 @@
         <v>0</v>
       </c>
       <c r="M969">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N969">
         <v>0</v>
@@ -45329,7 +45329,7 @@
         <v>0</v>
       </c>
       <c r="M970">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N970">
         <v>0</v>
@@ -45373,7 +45373,7 @@
         <v>0</v>
       </c>
       <c r="M971">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N971">
         <v>0</v>
@@ -45417,7 +45417,7 @@
         <v>0</v>
       </c>
       <c r="M972">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N972">
         <v>0</v>
@@ -45461,7 +45461,7 @@
         <v>0</v>
       </c>
       <c r="M973">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N973">
         <v>0</v>
@@ -45549,7 +45549,7 @@
         <v>0</v>
       </c>
       <c r="M975">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N975">
         <v>0</v>
@@ -45637,7 +45637,7 @@
         <v>0</v>
       </c>
       <c r="M977">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N977">
         <v>0</v>
@@ -45681,7 +45681,7 @@
         <v>0</v>
       </c>
       <c r="M978">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N978">
         <v>0</v>
@@ -45945,10 +45945,10 @@
         <v>1</v>
       </c>
       <c r="M984">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N984">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="985" spans="1:14">
@@ -45989,10 +45989,10 @@
         <v>1</v>
       </c>
       <c r="M985">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N985">
-        <v>0</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="986" spans="1:14">
@@ -46033,7 +46033,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -46077,7 +46077,7 @@
         <v>0</v>
       </c>
       <c r="M987">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N987">
         <v>0</v>
@@ -46253,7 +46253,7 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N991">
         <v>0</v>
@@ -47045,7 +47045,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -47089,7 +47089,7 @@
         <v>0</v>
       </c>
       <c r="M1010">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1010">
         <v>0</v>
@@ -47133,7 +47133,7 @@
         <v>0</v>
       </c>
       <c r="M1011">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1011">
         <v>0</v>
@@ -47441,7 +47441,7 @@
         <v>0</v>
       </c>
       <c r="M1018">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1018">
         <v>0</v>
@@ -47573,7 +47573,7 @@
         <v>0</v>
       </c>
       <c r="M1021">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1021">
         <v>0</v>
@@ -47749,7 +47749,7 @@
         <v>0</v>
       </c>
       <c r="M1025">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1025">
         <v>0</v>
@@ -47793,7 +47793,7 @@
         <v>0</v>
       </c>
       <c r="M1026">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1026">
         <v>0</v>
@@ -47837,7 +47837,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -47925,7 +47925,7 @@
         <v>0</v>
       </c>
       <c r="M1029">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1029">
         <v>0</v>
@@ -48013,7 +48013,7 @@
         <v>0</v>
       </c>
       <c r="M1031">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1031">
         <v>0</v>
@@ -48189,7 +48189,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1035">
         <v>0</v>
@@ -48453,7 +48453,7 @@
         <v>0</v>
       </c>
       <c r="M1041">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1041">
         <v>0</v>
@@ -48497,7 +48497,7 @@
         <v>0</v>
       </c>
       <c r="M1042">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1042">
         <v>0</v>
@@ -48541,7 +48541,7 @@
         <v>0</v>
       </c>
       <c r="M1043">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1043">
         <v>0</v>
@@ -48585,7 +48585,7 @@
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1044">
         <v>0</v>
@@ -48629,7 +48629,7 @@
         <v>0</v>
       </c>
       <c r="M1045">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1045">
         <v>0</v>
@@ -48673,7 +48673,7 @@
         <v>0</v>
       </c>
       <c r="M1046">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1046">
         <v>0</v>
@@ -48805,7 +48805,7 @@
         <v>0</v>
       </c>
       <c r="M1049">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1049">
         <v>0</v>
@@ -49025,7 +49025,7 @@
         <v>0</v>
       </c>
       <c r="M1054">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1054">
         <v>0</v>
@@ -49245,7 +49245,7 @@
         <v>0</v>
       </c>
       <c r="M1059">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1059">
         <v>0</v>
@@ -49333,7 +49333,7 @@
         <v>0</v>
       </c>
       <c r="M1061">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1061">
         <v>0</v>
@@ -49377,7 +49377,7 @@
         <v>0</v>
       </c>
       <c r="M1062">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1062">
         <v>0</v>
@@ -49421,7 +49421,7 @@
         <v>0</v>
       </c>
       <c r="M1063">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1063">
         <v>0</v>
@@ -49465,7 +49465,7 @@
         <v>0</v>
       </c>
       <c r="M1064">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1064">
         <v>0</v>
@@ -49729,7 +49729,7 @@
         <v>0</v>
       </c>
       <c r="M1070">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1070">
         <v>0</v>
@@ -49817,7 +49817,7 @@
         <v>0</v>
       </c>
       <c r="M1072">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1072">
         <v>0</v>
@@ -49861,7 +49861,7 @@
         <v>0</v>
       </c>
       <c r="M1073">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1073">
         <v>0</v>
@@ -49949,7 +49949,7 @@
         <v>0</v>
       </c>
       <c r="M1075">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1075">
         <v>0</v>
@@ -50081,7 +50081,7 @@
         <v>0</v>
       </c>
       <c r="M1078">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1078">
         <v>0</v>
@@ -50125,7 +50125,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -50213,7 +50213,7 @@
         <v>0</v>
       </c>
       <c r="M1081">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1081">
         <v>0</v>
@@ -50433,7 +50433,7 @@
         <v>0</v>
       </c>
       <c r="M1086">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1086">
         <v>0</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="M1087">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1087">
         <v>0</v>
@@ -50609,7 +50609,7 @@
         <v>0</v>
       </c>
       <c r="M1090">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1090">
         <v>0</v>
@@ -50653,7 +50653,7 @@
         <v>0</v>
       </c>
       <c r="M1091">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1091">
         <v>0</v>
@@ -50829,7 +50829,7 @@
         <v>0</v>
       </c>
       <c r="M1095">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1095">
         <v>0</v>
@@ -50873,7 +50873,7 @@
         <v>0</v>
       </c>
       <c r="M1096">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1096">
         <v>0</v>
@@ -50961,7 +50961,7 @@
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1098">
         <v>0</v>
@@ -51005,7 +51005,7 @@
         <v>0</v>
       </c>
       <c r="M1099">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1099">
         <v>0</v>
@@ -52061,10 +52061,10 @@
         <v>0.297414</v>
       </c>
       <c r="M1123">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1123">
-        <v>12.3129396</v>
+        <v>16.4172528</v>
       </c>
     </row>
     <row r="1124" spans="1:14">
@@ -52149,10 +52149,10 @@
         <v>0.107759</v>
       </c>
       <c r="M1125">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1125">
-        <v>1.616385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:14">
@@ -52193,7 +52193,7 @@
         <v>0</v>
       </c>
       <c r="M1126">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1126">
         <v>0</v>
@@ -52281,7 +52281,7 @@
         <v>0</v>
       </c>
       <c r="M1128">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1128">
         <v>0</v>
@@ -52325,7 +52325,7 @@
         <v>0</v>
       </c>
       <c r="M1129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1129">
         <v>0</v>
@@ -52457,7 +52457,7 @@
         <v>0</v>
       </c>
       <c r="M1132">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1132">
         <v>0</v>
@@ -52677,7 +52677,7 @@
         <v>0</v>
       </c>
       <c r="M1137">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1137">
         <v>0</v>
@@ -52721,7 +52721,7 @@
         <v>0</v>
       </c>
       <c r="M1138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1138">
         <v>0</v>
@@ -52809,7 +52809,7 @@
         <v>0</v>
       </c>
       <c r="M1140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1140">
         <v>0</v>
@@ -52853,7 +52853,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1141">
         <v>0</v>
@@ -52941,7 +52941,7 @@
         <v>0</v>
       </c>
       <c r="M1143">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1143">
         <v>0</v>
@@ -52985,7 +52985,7 @@
         <v>0</v>
       </c>
       <c r="M1144">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1144">
         <v>0</v>
@@ -53029,7 +53029,7 @@
         <v>0</v>
       </c>
       <c r="M1145">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1145">
         <v>0</v>
@@ -53161,7 +53161,7 @@
         <v>0</v>
       </c>
       <c r="M1148">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1148">
         <v>0</v>
@@ -53205,7 +53205,7 @@
         <v>0</v>
       </c>
       <c r="M1149">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1149">
         <v>0</v>
@@ -53293,7 +53293,7 @@
         <v>0</v>
       </c>
       <c r="M1151">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1151">
         <v>0</v>
@@ -53381,7 +53381,7 @@
         <v>0</v>
       </c>
       <c r="M1153">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1153">
         <v>0</v>
@@ -53425,7 +53425,7 @@
         <v>0</v>
       </c>
       <c r="M1154">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1154">
         <v>0</v>
@@ -53469,7 +53469,7 @@
         <v>0</v>
       </c>
       <c r="M1155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1155">
         <v>0</v>
@@ -53513,7 +53513,7 @@
         <v>0</v>
       </c>
       <c r="M1156">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1156">
         <v>0</v>
@@ -53601,7 +53601,7 @@
         <v>0</v>
       </c>
       <c r="M1158">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1158">
         <v>0</v>
@@ -53645,7 +53645,7 @@
         <v>0</v>
       </c>
       <c r="M1159">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1159">
         <v>0</v>
@@ -53777,7 +53777,7 @@
         <v>0</v>
       </c>
       <c r="M1162">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1162">
         <v>0</v>
@@ -53821,7 +53821,7 @@
         <v>0</v>
       </c>
       <c r="M1163">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1163">
         <v>0</v>
@@ -53997,7 +53997,7 @@
         <v>0</v>
       </c>
       <c r="M1167">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1167">
         <v>0</v>
@@ -54085,7 +54085,7 @@
         <v>0</v>
       </c>
       <c r="M1169">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1169">
         <v>0</v>
@@ -54129,7 +54129,7 @@
         <v>0</v>
       </c>
       <c r="M1170">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1170">
         <v>0</v>
@@ -54173,7 +54173,7 @@
         <v>0</v>
       </c>
       <c r="M1171">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1171">
         <v>0</v>
@@ -54217,7 +54217,7 @@
         <v>0</v>
       </c>
       <c r="M1172">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1172">
         <v>0</v>
@@ -54349,7 +54349,7 @@
         <v>0</v>
       </c>
       <c r="M1175">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1175">
         <v>0</v>
@@ -54613,7 +54613,7 @@
         <v>0</v>
       </c>
       <c r="M1181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1181">
         <v>0</v>
@@ -54657,7 +54657,7 @@
         <v>0</v>
       </c>
       <c r="M1182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1182">
         <v>0</v>
@@ -54833,7 +54833,7 @@
         <v>0</v>
       </c>
       <c r="M1186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1186">
         <v>0</v>
@@ -54877,7 +54877,7 @@
         <v>0</v>
       </c>
       <c r="M1187">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1187">
         <v>0</v>
@@ -54921,7 +54921,7 @@
         <v>0</v>
       </c>
       <c r="M1188">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1188">
         <v>0</v>
@@ -54965,7 +54965,7 @@
         <v>0</v>
       </c>
       <c r="M1189">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1189">
         <v>0</v>
@@ -55053,7 +55053,7 @@
         <v>0</v>
       </c>
       <c r="M1191">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1191">
         <v>0</v>
@@ -55097,7 +55097,7 @@
         <v>0</v>
       </c>
       <c r="M1192">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1192">
         <v>0</v>
@@ -55141,7 +55141,7 @@
         <v>0</v>
       </c>
       <c r="M1193">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1193">
         <v>0</v>
@@ -55757,7 +55757,7 @@
         <v>0</v>
       </c>
       <c r="M1207">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1207">
         <v>0</v>
@@ -55801,7 +55801,7 @@
         <v>0</v>
       </c>
       <c r="M1208">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1208">
         <v>0</v>
@@ -55845,7 +55845,7 @@
         <v>0</v>
       </c>
       <c r="M1209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1209">
         <v>0</v>
@@ -55889,7 +55889,7 @@
         <v>0</v>
       </c>
       <c r="M1210">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1210">
         <v>0</v>
@@ -56461,7 +56461,7 @@
         <v>0</v>
       </c>
       <c r="M1223">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1223">
         <v>0</v>
@@ -56549,7 +56549,7 @@
         <v>0</v>
       </c>
       <c r="M1225">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1225">
         <v>0</v>
@@ -56637,7 +56637,7 @@
         <v>0</v>
       </c>
       <c r="M1227">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1227">
         <v>0</v>
@@ -57209,7 +57209,7 @@
         <v>0</v>
       </c>
       <c r="M1240">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1240">
         <v>0</v>
@@ -57385,7 +57385,7 @@
         <v>0</v>
       </c>
       <c r="M1244">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1244">
         <v>0</v>
@@ -57429,7 +57429,7 @@
         <v>0</v>
       </c>
       <c r="M1245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1245">
         <v>0</v>
@@ -57473,7 +57473,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1246">
         <v>0</v>
@@ -57517,7 +57517,7 @@
         <v>0</v>
       </c>
       <c r="M1247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1247">
         <v>0</v>
@@ -57561,7 +57561,7 @@
         <v>0</v>
       </c>
       <c r="M1248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1248">
         <v>0</v>
@@ -57605,7 +57605,7 @@
         <v>0</v>
       </c>
       <c r="M1249">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1249">
         <v>0</v>
@@ -57869,7 +57869,7 @@
         <v>0</v>
       </c>
       <c r="M1255">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1255">
         <v>0</v>
@@ -57913,7 +57913,7 @@
         <v>0</v>
       </c>
       <c r="M1256">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1256">
         <v>0</v>
@@ -57957,7 +57957,7 @@
         <v>0</v>
       </c>
       <c r="M1257">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1257">
         <v>0</v>
@@ -58001,7 +58001,7 @@
         <v>0</v>
       </c>
       <c r="M1258">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1258">
         <v>0</v>
@@ -58045,7 +58045,7 @@
         <v>0</v>
       </c>
       <c r="M1259">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1259">
         <v>0</v>
@@ -58133,7 +58133,7 @@
         <v>0</v>
       </c>
       <c r="M1261">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1261">
         <v>0</v>
@@ -58353,7 +58353,7 @@
         <v>0</v>
       </c>
       <c r="M1266">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1266">
         <v>0</v>
@@ -58705,7 +58705,7 @@
         <v>0</v>
       </c>
       <c r="M1274">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1274">
         <v>0</v>
@@ -58749,7 +58749,7 @@
         <v>0</v>
       </c>
       <c r="M1275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1275">
         <v>0</v>
@@ -58793,7 +58793,7 @@
         <v>0</v>
       </c>
       <c r="M1276">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1276">
         <v>0</v>
@@ -58881,7 +58881,7 @@
         <v>0</v>
       </c>
       <c r="M1278">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1278">
         <v>0</v>
@@ -58969,7 +58969,7 @@
         <v>0</v>
       </c>
       <c r="M1280">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1280">
         <v>0</v>
@@ -59013,7 +59013,7 @@
         <v>0</v>
       </c>
       <c r="M1281">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1281">
         <v>0</v>
@@ -59057,7 +59057,7 @@
         <v>0</v>
       </c>
       <c r="M1282">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1282">
         <v>0</v>
@@ -59145,7 +59145,7 @@
         <v>0</v>
       </c>
       <c r="M1284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1284">
         <v>0</v>
@@ -59189,7 +59189,7 @@
         <v>0</v>
       </c>
       <c r="M1285">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1285">
         <v>0</v>
@@ -59233,7 +59233,7 @@
         <v>0</v>
       </c>
       <c r="M1286">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1286">
         <v>0</v>
@@ -59277,7 +59277,7 @@
         <v>0</v>
       </c>
       <c r="M1287">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N1287">
         <v>0</v>
@@ -59453,7 +59453,7 @@
         <v>0</v>
       </c>
       <c r="M1291">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1291">
         <v>0</v>
@@ -59717,7 +59717,7 @@
         <v>0</v>
       </c>
       <c r="M1297">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1297">
         <v>0</v>
@@ -59849,7 +59849,7 @@
         <v>0</v>
       </c>
       <c r="M1300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1300">
         <v>0</v>
@@ -59937,7 +59937,7 @@
         <v>0</v>
       </c>
       <c r="M1302">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="N1302">
         <v>0</v>
@@ -60113,7 +60113,7 @@
         <v>0</v>
       </c>
       <c r="M1306">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1306">
         <v>0</v>
@@ -60157,7 +60157,7 @@
         <v>0</v>
       </c>
       <c r="M1307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1307">
         <v>0</v>
@@ -60201,7 +60201,7 @@
         <v>0</v>
       </c>
       <c r="M1308">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1308">
         <v>0</v>
@@ -60685,7 +60685,7 @@
         <v>0</v>
       </c>
       <c r="M1319">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1319">
         <v>0</v>
@@ -60729,7 +60729,7 @@
         <v>0</v>
       </c>
       <c r="M1320">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1320">
         <v>0</v>
@@ -60773,7 +60773,7 @@
         <v>0</v>
       </c>
       <c r="M1321">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1321">
         <v>0</v>
@@ -60817,7 +60817,7 @@
         <v>0</v>
       </c>
       <c r="M1322">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1322">
         <v>0</v>
@@ -60861,7 +60861,7 @@
         <v>0</v>
       </c>
       <c r="M1323">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1323">
         <v>0</v>
@@ -60905,7 +60905,7 @@
         <v>0</v>
       </c>
       <c r="M1324">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1324">
         <v>0</v>
@@ -61521,7 +61521,7 @@
         <v>0</v>
       </c>
       <c r="M1338">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1338">
         <v>0</v>
@@ -61565,7 +61565,7 @@
         <v>0</v>
       </c>
       <c r="M1339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1339">
         <v>0</v>
@@ -61609,7 +61609,7 @@
         <v>0</v>
       </c>
       <c r="M1340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1340">
         <v>0</v>
@@ -61653,7 +61653,7 @@
         <v>0</v>
       </c>
       <c r="M1341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1341">
         <v>0</v>
@@ -61873,7 +61873,7 @@
         <v>0</v>
       </c>
       <c r="M1346">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1346">
         <v>0</v>
@@ -61917,7 +61917,7 @@
         <v>0</v>
       </c>
       <c r="M1347">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1347">
         <v>0</v>
@@ -61961,7 +61961,7 @@
         <v>0</v>
       </c>
       <c r="M1348">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1348">
         <v>0</v>
@@ -62005,7 +62005,7 @@
         <v>0</v>
       </c>
       <c r="M1349">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1349">
         <v>0</v>
@@ -62269,7 +62269,7 @@
         <v>0</v>
       </c>
       <c r="M1355">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1355">
         <v>0</v>
@@ -62313,7 +62313,7 @@
         <v>0</v>
       </c>
       <c r="M1356">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1356">
         <v>0</v>
@@ -62885,7 +62885,7 @@
         <v>0</v>
       </c>
       <c r="M1369">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="N1369">
         <v>0</v>
@@ -62929,7 +62929,7 @@
         <v>0</v>
       </c>
       <c r="M1370">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1370">
         <v>0</v>
@@ -63017,7 +63017,7 @@
         <v>0</v>
       </c>
       <c r="M1372">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1372">
         <v>0</v>
@@ -63061,7 +63061,7 @@
         <v>0</v>
       </c>
       <c r="M1373">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1373">
         <v>0</v>
@@ -63105,7 +63105,7 @@
         <v>0</v>
       </c>
       <c r="M1374">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1374">
         <v>0</v>
@@ -63193,7 +63193,7 @@
         <v>0</v>
       </c>
       <c r="M1376">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1376">
         <v>0</v>
@@ -63237,7 +63237,7 @@
         <v>0</v>
       </c>
       <c r="M1377">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1377">
         <v>0</v>
@@ -63325,7 +63325,7 @@
         <v>0</v>
       </c>
       <c r="M1379">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1379">
         <v>0</v>
@@ -63501,7 +63501,7 @@
         <v>0</v>
       </c>
       <c r="M1383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1383">
         <v>0</v>
@@ -63633,7 +63633,7 @@
         <v>0</v>
       </c>
       <c r="M1386">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1386">
         <v>0</v>
@@ -64249,10 +64249,10 @@
         <v>1</v>
       </c>
       <c r="M1400">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1400">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1401" spans="1:14">
@@ -64337,7 +64337,7 @@
         <v>0</v>
       </c>
       <c r="M1402">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1402">
         <v>0</v>
@@ -64557,7 +64557,7 @@
         <v>0</v>
       </c>
       <c r="M1407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1407">
         <v>0</v>
@@ -64645,7 +64645,7 @@
         <v>0</v>
       </c>
       <c r="M1409">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1409">
         <v>0</v>
@@ -64689,7 +64689,7 @@
         <v>0</v>
       </c>
       <c r="M1410">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1410">
         <v>0</v>
@@ -64909,7 +64909,7 @@
         <v>0</v>
       </c>
       <c r="M1415">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1415">
         <v>0</v>
@@ -64997,7 +64997,7 @@
         <v>0</v>
       </c>
       <c r="M1417">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1417">
         <v>0</v>
@@ -65129,7 +65129,7 @@
         <v>0</v>
       </c>
       <c r="M1420">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1420">
         <v>0</v>
@@ -65173,7 +65173,7 @@
         <v>0</v>
       </c>
       <c r="M1421">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1421">
         <v>0</v>
@@ -65217,7 +65217,7 @@
         <v>0</v>
       </c>
       <c r="M1422">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1422">
         <v>0</v>
@@ -65349,7 +65349,7 @@
         <v>0</v>
       </c>
       <c r="M1425">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1425">
         <v>0</v>
@@ -65437,7 +65437,7 @@
         <v>0</v>
       </c>
       <c r="M1427">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1427">
         <v>0</v>
@@ -65789,7 +65789,7 @@
         <v>0</v>
       </c>
       <c r="M1435">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1435">
         <v>0</v>
@@ -65877,7 +65877,7 @@
         <v>0</v>
       </c>
       <c r="M1437">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1437">
         <v>0</v>
@@ -65921,7 +65921,7 @@
         <v>0</v>
       </c>
       <c r="M1438">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1438">
         <v>0</v>
@@ -65965,7 +65965,7 @@
         <v>0</v>
       </c>
       <c r="M1439">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1439">
         <v>0</v>
@@ -66009,10 +66009,10 @@
         <v>1</v>
       </c>
       <c r="M1440">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1440">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1441" spans="1:14">
@@ -66053,7 +66053,7 @@
         <v>0</v>
       </c>
       <c r="M1441">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1441">
         <v>0</v>
@@ -66097,7 +66097,7 @@
         <v>0</v>
       </c>
       <c r="M1442">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1442">
         <v>0</v>
@@ -66185,7 +66185,7 @@
         <v>0</v>
       </c>
       <c r="M1444">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1444">
         <v>0</v>
@@ -66581,7 +66581,7 @@
         <v>0</v>
       </c>
       <c r="M1453">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1453">
         <v>0</v>
@@ -66625,7 +66625,7 @@
         <v>0</v>
       </c>
       <c r="M1454">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1454">
         <v>0</v>
@@ -66713,7 +66713,7 @@
         <v>0</v>
       </c>
       <c r="M1456">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1456">
         <v>0</v>
@@ -66801,7 +66801,7 @@
         <v>0</v>
       </c>
       <c r="M1458">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1458">
         <v>0</v>
@@ -67637,7 +67637,7 @@
         <v>0</v>
       </c>
       <c r="M1477">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1477">
         <v>0</v>
@@ -67681,7 +67681,7 @@
         <v>0</v>
       </c>
       <c r="M1478">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1478">
         <v>0</v>
@@ -67857,7 +67857,7 @@
         <v>0</v>
       </c>
       <c r="M1482">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1482">
         <v>0</v>
@@ -67901,7 +67901,7 @@
         <v>0</v>
       </c>
       <c r="M1483">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1483">
         <v>0</v>
@@ -68253,7 +68253,7 @@
         <v>0</v>
       </c>
       <c r="M1491">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1491">
         <v>0</v>
@@ -68297,7 +68297,7 @@
         <v>0</v>
       </c>
       <c r="M1492">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1492">
         <v>0</v>
@@ -68341,7 +68341,7 @@
         <v>0</v>
       </c>
       <c r="M1493">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1493">
         <v>0</v>
@@ -68517,7 +68517,7 @@
         <v>0</v>
       </c>
       <c r="M1497">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1497">
         <v>0</v>
@@ -68561,7 +68561,7 @@
         <v>0</v>
       </c>
       <c r="M1498">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1498">
         <v>0</v>
@@ -68605,7 +68605,7 @@
         <v>0</v>
       </c>
       <c r="M1499">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1499">
         <v>0</v>
@@ -68649,7 +68649,7 @@
         <v>0</v>
       </c>
       <c r="M1500">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1500">
         <v>0</v>
@@ -68913,7 +68913,7 @@
         <v>0</v>
       </c>
       <c r="M1506">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1506">
         <v>0</v>
@@ -68957,7 +68957,7 @@
         <v>0</v>
       </c>
       <c r="M1507">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1507">
         <v>0</v>
@@ -69705,7 +69705,7 @@
         <v>0</v>
       </c>
       <c r="M1524">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1524">
         <v>0</v>
@@ -70189,7 +70189,7 @@
         <v>0</v>
       </c>
       <c r="M1535">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1535">
         <v>0</v>
@@ -70277,7 +70277,7 @@
         <v>0</v>
       </c>
       <c r="M1537">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1537">
         <v>0</v>
@@ -70365,7 +70365,7 @@
         <v>0</v>
       </c>
       <c r="M1539">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1539">
         <v>0</v>
@@ -70409,7 +70409,7 @@
         <v>0</v>
       </c>
       <c r="M1540">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1540">
         <v>0</v>
@@ -70585,7 +70585,7 @@
         <v>0</v>
       </c>
       <c r="M1544">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1544">
         <v>0</v>
@@ -70893,7 +70893,7 @@
         <v>0</v>
       </c>
       <c r="M1551">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1551">
         <v>0</v>
@@ -71113,7 +71113,7 @@
         <v>0</v>
       </c>
       <c r="M1556">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1556">
         <v>0</v>
@@ -71245,7 +71245,7 @@
         <v>0</v>
       </c>
       <c r="M1559">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1559">
         <v>0</v>
@@ -71421,7 +71421,7 @@
         <v>0</v>
       </c>
       <c r="M1563">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1563">
         <v>0</v>
@@ -71465,7 +71465,7 @@
         <v>0</v>
       </c>
       <c r="M1564">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1564">
         <v>0</v>
@@ -72081,7 +72081,7 @@
         <v>0</v>
       </c>
       <c r="M1578">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1578">
         <v>0</v>
@@ -72125,7 +72125,7 @@
         <v>0</v>
       </c>
       <c r="M1579">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1579">
         <v>0</v>
@@ -72257,7 +72257,7 @@
         <v>0</v>
       </c>
       <c r="M1582">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1582">
         <v>0</v>
@@ -72301,7 +72301,7 @@
         <v>0</v>
       </c>
       <c r="M1583">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1583">
         <v>0</v>
@@ -72345,7 +72345,7 @@
         <v>0</v>
       </c>
       <c r="M1584">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1584">
         <v>0</v>
@@ -72477,7 +72477,7 @@
         <v>0</v>
       </c>
       <c r="M1587">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1587">
         <v>0</v>
@@ -72521,7 +72521,7 @@
         <v>0</v>
       </c>
       <c r="M1588">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1588">
         <v>0</v>
@@ -72565,7 +72565,7 @@
         <v>0</v>
       </c>
       <c r="M1589">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1589">
         <v>0</v>
@@ -72829,7 +72829,7 @@
         <v>0</v>
       </c>
       <c r="M1595">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1595">
         <v>0</v>
@@ -72917,7 +72917,7 @@
         <v>0</v>
       </c>
       <c r="M1597">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1597">
         <v>0</v>
@@ -72961,7 +72961,7 @@
         <v>0</v>
       </c>
       <c r="M1598">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1598">
         <v>0</v>
@@ -73445,7 +73445,7 @@
         <v>0</v>
       </c>
       <c r="M1609">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1609">
         <v>0</v>
@@ -73665,7 +73665,7 @@
         <v>0</v>
       </c>
       <c r="M1614">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1614">
         <v>0</v>
@@ -73753,7 +73753,7 @@
         <v>0</v>
       </c>
       <c r="M1616">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1616">
         <v>0</v>
@@ -73797,7 +73797,7 @@
         <v>0</v>
       </c>
       <c r="M1617">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1617">
         <v>0</v>
@@ -74105,7 +74105,7 @@
         <v>0</v>
       </c>
       <c r="M1624">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1624">
         <v>0</v>
@@ -74589,7 +74589,7 @@
         <v>0</v>
       </c>
       <c r="M1635">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1635">
         <v>0</v>
@@ -74633,7 +74633,7 @@
         <v>0</v>
       </c>
       <c r="M1636">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1636">
         <v>0</v>
@@ -74677,7 +74677,7 @@
         <v>0</v>
       </c>
       <c r="M1637">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1637">
         <v>0</v>
@@ -74765,7 +74765,7 @@
         <v>0</v>
       </c>
       <c r="M1639">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1639">
         <v>0</v>
@@ -75073,7 +75073,7 @@
         <v>0</v>
       </c>
       <c r="M1646">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1646">
         <v>0</v>
@@ -75161,7 +75161,7 @@
         <v>0</v>
       </c>
       <c r="M1648">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1648">
         <v>0</v>
@@ -75293,7 +75293,7 @@
         <v>0</v>
       </c>
       <c r="M1651">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1651">
         <v>0</v>
@@ -75381,7 +75381,7 @@
         <v>0</v>
       </c>
       <c r="M1653">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1653">
         <v>0</v>
@@ -75469,7 +75469,7 @@
         <v>0</v>
       </c>
       <c r="M1655">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1655">
         <v>0</v>
@@ -75557,7 +75557,7 @@
         <v>0</v>
       </c>
       <c r="M1657">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1657">
         <v>0</v>
@@ -75645,7 +75645,7 @@
         <v>0</v>
       </c>
       <c r="M1659">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1659">
         <v>0</v>
@@ -75733,7 +75733,7 @@
         <v>0</v>
       </c>
       <c r="M1661">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1661">
         <v>0</v>
@@ -75777,7 +75777,7 @@
         <v>0</v>
       </c>
       <c r="M1662">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1662">
         <v>0</v>
@@ -75821,7 +75821,7 @@
         <v>0</v>
       </c>
       <c r="M1663">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1663">
         <v>0</v>
@@ -75997,7 +75997,7 @@
         <v>0</v>
       </c>
       <c r="M1667">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1667">
         <v>0</v>
@@ -76041,7 +76041,7 @@
         <v>0</v>
       </c>
       <c r="M1668">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1668">
         <v>0</v>
@@ -76085,7 +76085,7 @@
         <v>0</v>
       </c>
       <c r="M1669">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1669">
         <v>0</v>
@@ -76261,7 +76261,7 @@
         <v>0</v>
       </c>
       <c r="M1673">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1673">
         <v>0</v>
@@ -76349,7 +76349,7 @@
         <v>0</v>
       </c>
       <c r="M1675">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1675">
         <v>0</v>
@@ -76393,7 +76393,7 @@
         <v>0</v>
       </c>
       <c r="M1676">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1676">
         <v>0</v>
@@ -76437,7 +76437,7 @@
         <v>0</v>
       </c>
       <c r="M1677">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1677">
         <v>0</v>
@@ -76745,7 +76745,7 @@
         <v>0</v>
       </c>
       <c r="M1684">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1684">
         <v>0</v>
@@ -76789,7 +76789,7 @@
         <v>0</v>
       </c>
       <c r="M1685">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1685">
         <v>0</v>
@@ -77141,7 +77141,7 @@
         <v>0</v>
       </c>
       <c r="M1693">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1693">
         <v>0</v>
@@ -77273,7 +77273,7 @@
         <v>0</v>
       </c>
       <c r="M1696">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1696">
         <v>0</v>
@@ -77361,7 +77361,7 @@
         <v>0</v>
       </c>
       <c r="M1698">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1698">
         <v>0</v>
@@ -77581,7 +77581,7 @@
         <v>0</v>
       </c>
       <c r="M1703">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1703">
         <v>0</v>
@@ -77625,7 +77625,7 @@
         <v>0</v>
       </c>
       <c r="M1704">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1704">
         <v>0</v>
@@ -77889,7 +77889,7 @@
         <v>0</v>
       </c>
       <c r="M1710">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1710">
         <v>0</v>
@@ -78153,7 +78153,7 @@
         <v>0</v>
       </c>
       <c r="M1716">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1716">
         <v>0</v>
@@ -78461,7 +78461,7 @@
         <v>0</v>
       </c>
       <c r="M1723">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1723">
         <v>0</v>
@@ -78505,7 +78505,7 @@
         <v>0</v>
       </c>
       <c r="M1724">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1724">
         <v>0</v>
@@ -78637,7 +78637,7 @@
         <v>0</v>
       </c>
       <c r="M1727">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1727">
         <v>0</v>
@@ -78681,7 +78681,7 @@
         <v>0</v>
       </c>
       <c r="M1728">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1728">
         <v>0</v>
@@ -78769,7 +78769,7 @@
         <v>0</v>
       </c>
       <c r="M1730">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1730">
         <v>0</v>
@@ -78857,7 +78857,7 @@
         <v>0</v>
       </c>
       <c r="M1732">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1732">
         <v>0</v>
@@ -78901,7 +78901,7 @@
         <v>0</v>
       </c>
       <c r="M1733">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1733">
         <v>0</v>
@@ -78989,7 +78989,7 @@
         <v>0</v>
       </c>
       <c r="M1735">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1735">
         <v>0</v>
@@ -79209,7 +79209,7 @@
         <v>0</v>
       </c>
       <c r="M1740">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1740">
         <v>0</v>
@@ -79341,7 +79341,7 @@
         <v>0</v>
       </c>
       <c r="M1743">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1743">
         <v>0</v>
@@ -79385,7 +79385,7 @@
         <v>0</v>
       </c>
       <c r="M1744">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1744">
         <v>0</v>
@@ -79561,7 +79561,7 @@
         <v>0</v>
       </c>
       <c r="M1748">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1748">
         <v>0</v>
@@ -79605,7 +79605,7 @@
         <v>0</v>
       </c>
       <c r="M1749">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1749">
         <v>0</v>
@@ -79693,7 +79693,7 @@
         <v>0</v>
       </c>
       <c r="M1751">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1751">
         <v>0</v>
@@ -79957,7 +79957,7 @@
         <v>0</v>
       </c>
       <c r="M1757">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1757">
         <v>0</v>
@@ -80001,7 +80001,7 @@
         <v>0</v>
       </c>
       <c r="M1758">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1758">
         <v>0</v>
@@ -80265,7 +80265,7 @@
         <v>0</v>
       </c>
       <c r="M1764">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1764">
         <v>0</v>
@@ -80309,7 +80309,7 @@
         <v>0</v>
       </c>
       <c r="M1765">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1765">
         <v>0</v>
@@ -80353,7 +80353,7 @@
         <v>0</v>
       </c>
       <c r="M1766">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1766">
         <v>0</v>
@@ -80793,7 +80793,7 @@
         <v>0</v>
       </c>
       <c r="M1776">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1776">
         <v>0</v>
@@ -81189,7 +81189,7 @@
         <v>0</v>
       </c>
       <c r="M1785">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1785">
         <v>0</v>
@@ -81629,7 +81629,7 @@
         <v>0</v>
       </c>
       <c r="M1795">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1795">
         <v>0</v>
@@ -81673,7 +81673,7 @@
         <v>0</v>
       </c>
       <c r="M1796">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1796">
         <v>0</v>
@@ -81717,7 +81717,7 @@
         <v>0</v>
       </c>
       <c r="M1797">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1797">
         <v>0</v>
@@ -81761,7 +81761,7 @@
         <v>0</v>
       </c>
       <c r="M1798">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1798">
         <v>0</v>
@@ -82157,7 +82157,7 @@
         <v>0</v>
       </c>
       <c r="M1807">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1807">
         <v>0</v>
@@ -82465,10 +82465,10 @@
         <v>0.5</v>
       </c>
       <c r="M1814">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1814">
-        <v>20.7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1815" spans="1:14">
@@ -82553,7 +82553,7 @@
         <v>0</v>
       </c>
       <c r="M1816">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1816">
         <v>0</v>
@@ -82597,7 +82597,7 @@
         <v>0</v>
       </c>
       <c r="M1817">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1817">
         <v>0</v>
@@ -82861,7 +82861,7 @@
         <v>0</v>
       </c>
       <c r="M1823">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1823">
         <v>0</v>
@@ -82905,7 +82905,7 @@
         <v>0</v>
       </c>
       <c r="M1824">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1824">
         <v>0</v>
@@ -83125,10 +83125,10 @@
         <v>1</v>
       </c>
       <c r="M1829">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1829">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1830" spans="1:14">
@@ -83169,7 +83169,7 @@
         <v>0</v>
       </c>
       <c r="M1830">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1830">
         <v>0</v>
@@ -83257,7 +83257,7 @@
         <v>0</v>
       </c>
       <c r="M1832">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1832">
         <v>0</v>
@@ -83389,7 +83389,7 @@
         <v>0</v>
       </c>
       <c r="M1835">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1835">
         <v>0</v>
@@ -83433,7 +83433,7 @@
         <v>0</v>
       </c>
       <c r="M1836">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1836">
         <v>0</v>
@@ -83477,7 +83477,7 @@
         <v>0</v>
       </c>
       <c r="M1837">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1837">
         <v>0</v>
@@ -83565,7 +83565,7 @@
         <v>0</v>
       </c>
       <c r="M1839">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1839">
         <v>0</v>
@@ -83609,7 +83609,7 @@
         <v>0</v>
       </c>
       <c r="M1840">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1840">
         <v>0</v>
@@ -84093,7 +84093,7 @@
         <v>0</v>
       </c>
       <c r="M1851">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1851">
         <v>0</v>
@@ -84137,7 +84137,7 @@
         <v>0</v>
       </c>
       <c r="M1852">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1852">
         <v>0</v>
@@ -84621,7 +84621,7 @@
         <v>0</v>
       </c>
       <c r="M1863">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1863">
         <v>0</v>
@@ -84929,7 +84929,7 @@
         <v>0</v>
       </c>
       <c r="M1870">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1870">
         <v>0</v>
@@ -85281,7 +85281,7 @@
         <v>0</v>
       </c>
       <c r="M1878">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1878">
         <v>0</v>
@@ -85677,7 +85677,7 @@
         <v>0</v>
       </c>
       <c r="M1887">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1887">
         <v>0</v>
@@ -86513,7 +86513,7 @@
         <v>0</v>
       </c>
       <c r="M1906">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1906">
         <v>0</v>
@@ -86557,7 +86557,7 @@
         <v>0</v>
       </c>
       <c r="M1907">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1907">
         <v>0</v>
@@ -86645,7 +86645,7 @@
         <v>0</v>
       </c>
       <c r="M1909">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1909">
         <v>0</v>
@@ -87217,7 +87217,7 @@
         <v>0</v>
       </c>
       <c r="M1922">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1922">
         <v>0</v>
@@ -87393,7 +87393,7 @@
         <v>0</v>
       </c>
       <c r="M1926">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1926">
         <v>0</v>
@@ -87437,7 +87437,7 @@
         <v>0</v>
       </c>
       <c r="M1927">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1927">
         <v>0</v>
@@ -87613,7 +87613,7 @@
         <v>0</v>
       </c>
       <c r="M1931">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1931">
         <v>0</v>
@@ -87701,7 +87701,7 @@
         <v>0</v>
       </c>
       <c r="M1933">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1933">
         <v>0</v>
@@ -87789,7 +87789,7 @@
         <v>0</v>
       </c>
       <c r="M1935">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1935">
         <v>0</v>
@@ -87833,7 +87833,7 @@
         <v>0</v>
       </c>
       <c r="M1936">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1936">
         <v>0</v>
@@ -87921,7 +87921,7 @@
         <v>0</v>
       </c>
       <c r="M1938">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1938">
         <v>0</v>
@@ -88141,7 +88141,7 @@
         <v>0</v>
       </c>
       <c r="M1943">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1943">
         <v>0</v>
@@ -88185,7 +88185,7 @@
         <v>0</v>
       </c>
       <c r="M1944">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1944">
         <v>0</v>
@@ -88229,7 +88229,7 @@
         <v>0</v>
       </c>
       <c r="M1945">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1945">
         <v>0</v>
@@ -88273,7 +88273,7 @@
         <v>0</v>
       </c>
       <c r="M1946">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1946">
         <v>0</v>
@@ -88317,7 +88317,7 @@
         <v>0</v>
       </c>
       <c r="M1947">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1947">
         <v>0</v>
@@ -89021,7 +89021,7 @@
         <v>0</v>
       </c>
       <c r="M1963">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1963">
         <v>0</v>
@@ -89153,7 +89153,7 @@
         <v>0</v>
       </c>
       <c r="M1966">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1966">
         <v>0</v>
@@ -89197,7 +89197,7 @@
         <v>0</v>
       </c>
       <c r="M1967">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1967">
         <v>0</v>
@@ -89241,7 +89241,7 @@
         <v>0</v>
       </c>
       <c r="M1968">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1968">
         <v>0</v>
@@ -89285,7 +89285,7 @@
         <v>0</v>
       </c>
       <c r="M1969">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1969">
         <v>0</v>
@@ -89373,7 +89373,7 @@
         <v>0</v>
       </c>
       <c r="M1971">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1971">
         <v>0</v>
@@ -89417,7 +89417,7 @@
         <v>0</v>
       </c>
       <c r="M1972">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1972">
         <v>0</v>
@@ -89461,7 +89461,7 @@
         <v>0</v>
       </c>
       <c r="M1973">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1973">
         <v>0</v>
@@ -89593,7 +89593,7 @@
         <v>0</v>
       </c>
       <c r="M1976">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1976">
         <v>0</v>
@@ -89725,7 +89725,7 @@
         <v>0</v>
       </c>
       <c r="M1979">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1979">
         <v>0</v>
@@ -89769,7 +89769,7 @@
         <v>0</v>
       </c>
       <c r="M1980">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1980">
         <v>0</v>
@@ -89813,7 +89813,7 @@
         <v>0</v>
       </c>
       <c r="M1981">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1981">
         <v>0</v>
@@ -89857,7 +89857,7 @@
         <v>0</v>
       </c>
       <c r="M1982">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1982">
         <v>0</v>
@@ -89901,7 +89901,7 @@
         <v>0</v>
       </c>
       <c r="M1983">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1983">
         <v>0</v>
@@ -90077,7 +90077,7 @@
         <v>0</v>
       </c>
       <c r="M1987">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1987">
         <v>0</v>
@@ -90121,7 +90121,7 @@
         <v>0</v>
       </c>
       <c r="M1988">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1988">
         <v>0</v>
@@ -90341,7 +90341,7 @@
         <v>0</v>
       </c>
       <c r="M1993">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1993">
         <v>0</v>
@@ -90473,7 +90473,7 @@
         <v>0</v>
       </c>
       <c r="M1996">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1996">
         <v>0</v>
@@ -90649,7 +90649,7 @@
         <v>0</v>
       </c>
       <c r="M2000">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2000">
         <v>0</v>
@@ -90693,7 +90693,7 @@
         <v>0</v>
       </c>
       <c r="M2001">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2001">
         <v>0</v>
@@ -90737,7 +90737,7 @@
         <v>0</v>
       </c>
       <c r="M2002">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2002">
         <v>0</v>
@@ -90869,7 +90869,7 @@
         <v>0</v>
       </c>
       <c r="M2005">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N2005">
         <v>0</v>
@@ -90913,7 +90913,7 @@
         <v>0</v>
       </c>
       <c r="M2006">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2006">
         <v>0</v>
@@ -91133,7 +91133,7 @@
         <v>0</v>
       </c>
       <c r="M2011">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N2011">
         <v>0</v>
@@ -91397,7 +91397,7 @@
         <v>0</v>
       </c>
       <c r="M2017">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2017">
         <v>0</v>
@@ -91573,7 +91573,7 @@
         <v>0</v>
       </c>
       <c r="M2021">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N2021">
         <v>0</v>
@@ -91837,7 +91837,7 @@
         <v>0</v>
       </c>
       <c r="M2027">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N2027">
         <v>0</v>
@@ -91881,7 +91881,7 @@
         <v>0</v>
       </c>
       <c r="M2028">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2028">
         <v>0</v>
@@ -92233,7 +92233,7 @@
         <v>0</v>
       </c>
       <c r="M2036">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2036">
         <v>0</v>
@@ -93113,7 +93113,7 @@
         <v>0</v>
       </c>
       <c r="M2056">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2056">
         <v>0</v>
@@ -93157,7 +93157,7 @@
         <v>0</v>
       </c>
       <c r="M2057">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2057">
         <v>0</v>
@@ -93201,7 +93201,7 @@
         <v>0</v>
       </c>
       <c r="M2058">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2058">
         <v>0</v>
@@ -93289,7 +93289,7 @@
         <v>0</v>
       </c>
       <c r="M2060">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N2060">
         <v>0</v>
@@ -93465,7 +93465,7 @@
         <v>0</v>
       </c>
       <c r="M2064">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2064">
         <v>0</v>
@@ -93641,7 +93641,7 @@
         <v>0</v>
       </c>
       <c r="M2068">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2068">
         <v>0</v>
@@ -93729,7 +93729,7 @@
         <v>0</v>
       </c>
       <c r="M2070">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2070">
         <v>0</v>
@@ -94257,7 +94257,7 @@
         <v>0</v>
       </c>
       <c r="M2082">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2082">
         <v>0</v>
@@ -94433,7 +94433,7 @@
         <v>0</v>
       </c>
       <c r="M2086">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N2086">
         <v>0</v>
@@ -94873,7 +94873,7 @@
         <v>0</v>
       </c>
       <c r="M2096">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2096">
         <v>0</v>
@@ -94961,7 +94961,7 @@
         <v>0</v>
       </c>
       <c r="M2098">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2098">
         <v>0</v>
@@ -95137,7 +95137,7 @@
         <v>0</v>
       </c>
       <c r="M2102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2102">
         <v>0</v>
@@ -95181,7 +95181,7 @@
         <v>0</v>
       </c>
       <c r="M2103">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2103">
         <v>0</v>
@@ -95225,7 +95225,7 @@
         <v>0</v>
       </c>
       <c r="M2104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2104">
         <v>0</v>
@@ -95269,7 +95269,7 @@
         <v>0</v>
       </c>
       <c r="M2105">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2105">
         <v>0</v>
@@ -95313,7 +95313,7 @@
         <v>0</v>
       </c>
       <c r="M2106">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2106">
         <v>0</v>
@@ -95621,7 +95621,7 @@
         <v>0</v>
       </c>
       <c r="M2113">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2113">
         <v>0</v>
